--- a/Team-Data/2014-15/3-3-2014-15.xlsx
+++ b/Team-Data/2014-15/3-3-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" t="n">
         <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K2" t="n">
         <v>0.466</v>
       </c>
       <c r="L2" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O2" t="n">
         <v>17.2</v>
@@ -705,19 +772,19 @@
         <v>22.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S2" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T2" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
         <v>14.4</v>
@@ -726,13 +793,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AA2" t="n">
         <v>20.6</v>
@@ -744,7 +811,7 @@
         <v>6.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,16 +823,16 @@
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -783,13 +850,13 @@
         <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
         <v>27</v>
@@ -804,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -813,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB2" t="n">
         <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -848,46 +915,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>0.397</v>
+        <v>0.404</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J3" t="n">
         <v>88.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L3" t="n">
         <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.329</v>
+        <v>0.331</v>
       </c>
       <c r="O3" t="n">
         <v>15.1</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R3" t="n">
         <v>11.2</v>
@@ -905,7 +972,7 @@
         <v>14.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X3" t="n">
         <v>3.8</v>
@@ -917,25 +984,25 @@
         <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.6</v>
+        <v>-1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG3" t="n">
         <v>21</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>7</v>
@@ -953,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN3" t="n">
         <v>24</v>
@@ -962,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>12</v>
@@ -980,19 +1047,19 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX3" t="n">
         <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1001,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,10 +1187,10 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
@@ -1132,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
         <v>19</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
         <v>23</v>
@@ -1150,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS4" t="n">
         <v>17</v>
@@ -1159,7 +1226,7 @@
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.431</v>
+        <v>0.421</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,40 +1297,40 @@
         <v>35.9</v>
       </c>
       <c r="J5" t="n">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.314</v>
+        <v>0.313</v>
       </c>
       <c r="O5" t="n">
         <v>16.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.738</v>
       </c>
       <c r="R5" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S5" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T5" t="n">
         <v>44</v>
       </c>
       <c r="U5" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V5" t="n">
         <v>11.9</v>
@@ -1278,34 +1345,34 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA5" t="n">
         <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1332,7 +1399,7 @@
         <v>23</v>
       </c>
       <c r="AR5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
@@ -1341,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -1394,25 +1461,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
         <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.623</v>
+        <v>0.617</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>83.3</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.44</v>
@@ -1421,19 +1488,19 @@
         <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
         <v>20.2</v>
       </c>
       <c r="P6" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
         <v>12.3</v>
@@ -1457,25 +1524,25 @@
         <v>6.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA6" t="n">
         <v>21.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1487,10 +1554,10 @@
         <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1514,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,10 +1590,10 @@
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>29</v>
@@ -1535,13 +1602,13 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
       </c>
       <c r="BA6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="n">
         <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>0.613</v>
+        <v>0.607</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J7" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L7" t="n">
         <v>9.300000000000001</v>
@@ -1609,25 +1676,25 @@
         <v>0.353</v>
       </c>
       <c r="O7" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P7" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R7" t="n">
         <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
         <v>14</v>
@@ -1636,34 +1703,34 @@
         <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA7" t="n">
         <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>27</v>
@@ -1672,10 +1739,10 @@
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1693,43 +1760,43 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY7" t="n">
         <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC7" t="n">
         <v>8</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>0.656</v>
+        <v>0.645</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,16 +1843,16 @@
         <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>85.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L8" t="n">
         <v>9.4</v>
       </c>
       <c r="M8" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="N8" t="n">
         <v>0.353</v>
@@ -1794,25 +1861,25 @@
         <v>16.6</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R8" t="n">
         <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
@@ -1827,28 +1894,28 @@
         <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1869,19 +1936,19 @@
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>39</v>
       </c>
       <c r="G9" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1961,25 +2028,25 @@
         <v>86.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L9" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.312</v>
+        <v>0.311</v>
       </c>
       <c r="O9" t="n">
         <v>18.1</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
@@ -1991,34 +2058,34 @@
         <v>44.7</v>
       </c>
       <c r="U9" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V9" t="n">
         <v>14.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
         <v>22.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2030,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>18</v>
@@ -2045,25 +2112,25 @@
         <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN9" t="n">
         <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT9" t="n">
         <v>8</v>
@@ -2072,13 +2139,13 @@
         <v>17</v>
       </c>
       <c r="AV9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
         <v>19</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>30</v>
@@ -2087,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>-1.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
@@ -2212,10 +2279,10 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ10" t="n">
         <v>9</v>
@@ -2233,10 +2300,10 @@
         <v>20</v>
       </c>
       <c r="AO10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>10.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2424,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2451,7 +2518,7 @@
         <v>14</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -2489,55 +2556,55 @@
         <v>59</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>0.678</v>
+        <v>0.695</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84.2</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
       </c>
       <c r="L12" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S12" t="n">
         <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V12" t="n">
         <v>17</v>
@@ -2549,22 +2616,22 @@
         <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.1</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,10 +2643,10 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>12</v>
@@ -2597,10 +2664,10 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,13 +2676,13 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2627,19 +2694,19 @@
         <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-0.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
@@ -2755,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2770,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2946,7 +3013,7 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
@@ -2961,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -3047,43 +3114,43 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.7</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.40000000000001</v>
+        <v>86.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P15" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3092,31 +3159,31 @@
         <v>7.3</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.2</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
@@ -3134,25 +3201,25 @@
         <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
         <v>16</v>
@@ -3167,22 +3234,22 @@
         <v>4</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
         <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB15" t="n">
         <v>17</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>23</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>15</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
         <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" t="n">
-        <v>0.712</v>
+        <v>0.724</v>
       </c>
       <c r="H16" t="n">
         <v>48.8</v>
       </c>
       <c r="I16" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J16" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M16" t="n">
         <v>15.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O16" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P16" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.774</v>
+        <v>0.776</v>
       </c>
       <c r="R16" t="n">
         <v>10.5</v>
       </c>
       <c r="S16" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U16" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V16" t="n">
         <v>13.1</v>
@@ -3277,22 +3344,22 @@
         <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,19 +3371,19 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ16" t="n">
         <v>18</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
@@ -3325,25 +3392,25 @@
         <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
         <v>20</v>
       </c>
       <c r="AS16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AT16" t="n">
         <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>5</v>
@@ -3355,7 +3422,7 @@
         <v>20</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>9</v>
@@ -3364,10 +3431,10 @@
         <v>13</v>
       </c>
       <c r="BB16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>20</v>
@@ -3507,7 +3574,7 @@
         <v>16</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3531,7 +3598,7 @@
         <v>21</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>24</v>
@@ -3543,7 +3610,7 @@
         <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="n">
         <v>32</v>
       </c>
       <c r="F18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>0.533</v>
+        <v>0.542</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,19 +3663,19 @@
         <v>37.5</v>
       </c>
       <c r="J18" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O18" t="n">
         <v>15.9</v>
@@ -3617,13 +3684,13 @@
         <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R18" t="n">
         <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T18" t="n">
         <v>41.4</v>
@@ -3635,7 +3702,7 @@
         <v>16.7</v>
       </c>
       <c r="W18" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X18" t="n">
         <v>4.8</v>
@@ -3647,22 +3714,22 @@
         <v>22.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
@@ -3671,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3695,10 +3762,10 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
         <v>25</v>
@@ -3713,10 +3780,10 @@
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>12</v>
@@ -3725,7 +3792,7 @@
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3877,10 +3944,10 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
@@ -3892,22 +3959,22 @@
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>8</v>
       </c>
       <c r="AX19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY19" t="n">
         <v>27</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>28</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
         <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>0.525</v>
+        <v>0.533</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
         <v>6.9</v>
@@ -3972,85 +4039,85 @@
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="O20" t="n">
         <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="S20" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T20" t="n">
-        <v>43.4</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
         <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W20" t="n">
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
         <v>14</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
         <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>14</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM20" t="n">
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4059,19 +4126,19 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU20" t="n">
         <v>16</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>14</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4083,13 +4150,13 @@
         <v>6</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" t="n">
         <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="n">
-        <v>0.203</v>
+        <v>0.207</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J21" t="n">
         <v>82.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L21" t="n">
         <v>7.1</v>
@@ -4154,16 +4221,16 @@
         <v>20.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.347</v>
+        <v>0.35</v>
       </c>
       <c r="O21" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="P21" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
@@ -4172,10 +4239,10 @@
         <v>29.4</v>
       </c>
       <c r="T21" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V21" t="n">
         <v>14.3</v>
@@ -4184,31 +4251,31 @@
         <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA21" t="n">
         <v>18.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.5</v>
+        <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
       </c>
       <c r="AF21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
         <v>30</v>
@@ -4217,16 +4284,16 @@
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4235,16 +4302,16 @@
         <v>14</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP21" t="n">
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4253,22 +4320,22 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW21" t="n">
         <v>22</v>
       </c>
       <c r="AX21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>25</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>26</v>
       </c>
       <c r="BA21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -4384,13 +4451,13 @@
         <v>2.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -4399,7 +4466,7 @@
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>6</v>
@@ -4414,10 +4481,10 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>11</v>
@@ -4447,10 +4514,10 @@
         <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>0.317</v>
+        <v>0.311</v>
       </c>
       <c r="H23" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
         <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N23" t="n">
         <v>0.352</v>
@@ -4530,19 +4597,19 @@
         <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.7</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
@@ -4551,7 +4618,7 @@
         <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.2</v>
@@ -4560,13 +4627,13 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4587,7 +4654,7 @@
         <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>23</v>
@@ -4599,7 +4666,7 @@
         <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4629,7 +4696,7 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
         <v>22</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-10.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG24" t="n">
         <v>29</v>
@@ -4766,7 +4833,7 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4799,22 +4866,22 @@
         <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX24" t="n">
         <v>4</v>
       </c>
       <c r="AY24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4942,7 +5009,7 @@
         <v>16</v>
       </c>
       <c r="AH25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>2</v>
@@ -4951,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>7</v>
@@ -4966,10 +5033,10 @@
         <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4984,7 +5051,7 @@
         <v>22</v>
       </c>
       <c r="AV25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
@@ -4999,7 +5066,7 @@
         <v>28</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -5112,19 +5179,19 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>7</v>
@@ -5148,7 +5215,7 @@
         <v>25</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5178,13 +5245,13 @@
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" t="n">
         <v>37</v>
       </c>
       <c r="G27" t="n">
-        <v>0.362</v>
+        <v>0.351</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K27" t="n">
         <v>0.451</v>
@@ -5243,34 +5310,34 @@
         <v>5.1</v>
       </c>
       <c r="M27" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.328</v>
+        <v>0.324</v>
       </c>
       <c r="O27" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="P27" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R27" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T27" t="n">
         <v>44.9</v>
       </c>
       <c r="U27" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.3</v>
@@ -5279,22 +5346,22 @@
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z27" t="n">
         <v>21.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.6</v>
+        <v>-4.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5312,19 +5379,19 @@
         <v>25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK27" t="n">
         <v>15</v>
       </c>
       <c r="AL27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM27" t="n">
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,13 +5400,13 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>15</v>
       </c>
       <c r="AS27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT27" t="n">
         <v>7</v>
@@ -5354,7 +5421,7 @@
         <v>27</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" t="n">
         <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>0.603</v>
+        <v>0.61</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,43 +5483,43 @@
         <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.7</v>
+        <v>83.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.452</v>
+        <v>0.454</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.357</v>
+        <v>0.36</v>
       </c>
       <c r="O28" t="n">
         <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
         <v>10.1</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5476,7 +5543,7 @@
         <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5485,10 +5552,10 @@
         <v>9</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>11</v>
@@ -5497,7 +5564,7 @@
         <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,10 +5573,10 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
@@ -5530,7 +5597,7 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
@@ -5539,19 +5606,19 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>10</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>3.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>8</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG29" t="n">
         <v>8</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5679,7 +5746,7 @@
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5688,7 +5755,7 @@
         <v>9</v>
       </c>
       <c r="AN29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" t="n">
         <v>35</v>
       </c>
       <c r="G30" t="n">
-        <v>0.407</v>
+        <v>0.397</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5786,13 +5853,13 @@
         <v>0.45</v>
       </c>
       <c r="L30" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N30" t="n">
-        <v>0.343</v>
+        <v>0.346</v>
       </c>
       <c r="O30" t="n">
         <v>16.7</v>
@@ -5801,22 +5868,22 @@
         <v>22.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R30" t="n">
         <v>11.8</v>
       </c>
       <c r="S30" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T30" t="n">
-        <v>43.4</v>
+        <v>43.2</v>
       </c>
       <c r="U30" t="n">
         <v>20.1</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.4</v>
@@ -5828,28 +5895,28 @@
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB30" t="n">
         <v>95.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE30" t="n">
         <v>21</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5870,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>17</v>
@@ -5882,13 +5949,13 @@
         <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>29</v>
@@ -5897,7 +5964,7 @@
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX30" t="n">
         <v>3</v>
@@ -5906,16 +5973,16 @@
         <v>16</v>
       </c>
       <c r="AZ30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA30" t="n">
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" t="n">
         <v>34</v>
       </c>
       <c r="F31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J31" t="n">
         <v>82.5</v>
@@ -5971,7 +6038,7 @@
         <v>5.9</v>
       </c>
       <c r="M31" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N31" t="n">
         <v>0.361</v>
@@ -5983,28 +6050,28 @@
         <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R31" t="n">
         <v>10.6</v>
       </c>
       <c r="S31" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T31" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U31" t="n">
         <v>24.2</v>
       </c>
       <c r="V31" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
         <v>7.3</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
         <v>4.2</v>
@@ -6013,16 +6080,16 @@
         <v>21.1</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,16 +6101,16 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6076,22 +6143,22 @@
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>20</v>
       </c>
-      <c r="AX31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>21</v>
-      </c>
       <c r="BA31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-3-2014-15</t>
+          <t>2015-03-03</t>
         </is>
       </c>
     </row>
